--- a/inside_web/web design/ウェブデザイン技能検定Q.xlsx
+++ b/inside_web/web design/ウェブデザイン技能検定Q.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WEB\2年\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\012Yeung\openforward\inside_web\web design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDB1472-0A19-4E60-B1B0-26871291D8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306121F9-EF6B-465C-A991-EFD71B0F31B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" firstSheet="6" activeTab="10" xr2:uid="{23FCE569-7921-4173-BEE7-242C3025BDE2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" firstSheet="6" activeTab="8" xr2:uid="{23FCE569-7921-4173-BEE7-242C3025BDE2}"/>
   </bookViews>
   <sheets>
     <sheet name="1章1_10" sheetId="1" r:id="rId1"/>
@@ -29,15 +29,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -8254,7 +8245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8289,6 +8280,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -8479,7 +8476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8573,9 +8570,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -8633,12 +8627,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8648,6 +8636,30 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -8655,19 +8667,6 @@
   <dxfs count="9">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -8746,13 +8745,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -8765,6 +8757,26 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -9400,13 +9412,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8F657B94-E1B9-42EC-A27A-548F299AB959}" name="テーブル2" displayName="テーブル2" ref="B2:E7" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8F657B94-E1B9-42EC-A27A-548F299AB959}" name="テーブル2" displayName="テーブル2" ref="B2:E7" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="B2:E7" xr:uid="{8F657B94-E1B9-42EC-A27A-548F299AB959}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2DCB0667-1713-4C58-AB3E-182B8D2A881D}" name="コード" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{7DD5EF88-4CAF-4C47-A930-2DB18E81E7E6}" name="ステータス" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{11A31006-3E11-40D8-A1C0-5C921B08484A}" name="意味" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{0DD1A29B-1038-43D2-9566-74B2E9CCC8D1}" name="例" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{2DCB0667-1713-4C58-AB3E-182B8D2A881D}" name="コード" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{7DD5EF88-4CAF-4C47-A930-2DB18E81E7E6}" name="ステータス" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{11A31006-3E11-40D8-A1C0-5C921B08484A}" name="意味" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{0DD1A29B-1038-43D2-9566-74B2E9CCC8D1}" name="例" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11107,7 +11119,7 @@
       <c r="D4" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="55" t="s">
         <v>726</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -11119,7 +11131,7 @@
       <c r="D5" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="1" t="s">
         <v>728</v>
       </c>
@@ -11131,74 +11143,74 @@
       <c r="B7" s="11">
         <v>1</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>729</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="31" t="s">
         <v>729</v>
       </c>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="32" t="s">
         <v>730</v>
       </c>
       <c r="D8" s="20"/>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="32" t="s">
         <v>730</v>
       </c>
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="32" t="s">
         <v>731</v>
       </c>
       <c r="D9" s="20"/>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="32" t="s">
         <v>736</v>
       </c>
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="32" t="s">
         <v>732</v>
       </c>
       <c r="D10" s="20"/>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="32" t="s">
         <v>732</v>
       </c>
       <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="32" t="s">
         <v>730</v>
       </c>
       <c r="D11" s="20"/>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="32" t="s">
         <v>730</v>
       </c>
       <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="32" t="s">
         <v>733</v>
       </c>
       <c r="D12" s="20"/>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="32" t="s">
         <v>737</v>
       </c>
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="32" t="s">
         <v>732</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="32" t="s">
         <v>732</v>
       </c>
       <c r="G13" s="20"/>
@@ -11220,74 +11232,74 @@
       <c r="B16" s="11">
         <v>3</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="31" t="s">
         <v>729</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16">
         <v>4</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="31" t="s">
         <v>729</v>
       </c>
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="32" t="s">
         <v>730</v>
       </c>
       <c r="D17" s="20"/>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="32" t="s">
         <v>730</v>
       </c>
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="32" t="s">
         <v>738</v>
       </c>
       <c r="D18" s="20"/>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="32" t="s">
         <v>740</v>
       </c>
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="32" t="s">
         <v>732</v>
       </c>
       <c r="D19" s="20"/>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="32" t="s">
         <v>732</v>
       </c>
       <c r="G19" s="20"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="32" t="s">
         <v>730</v>
       </c>
       <c r="D20" s="20"/>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="32" t="s">
         <v>730</v>
       </c>
       <c r="G20" s="20"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="32" t="s">
         <v>739</v>
       </c>
       <c r="D21" s="20"/>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="32" t="s">
         <v>739</v>
       </c>
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="32" t="s">
         <v>732</v>
       </c>
       <c r="D22" s="20"/>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="32" t="s">
         <v>732</v>
       </c>
       <c r="G22" s="20"/>
@@ -11665,7 +11677,7 @@
         <f t="shared" si="4"/>
         <v>ぞくせい</v>
       </c>
-      <c r="F65" s="35" t="s">
+      <c r="F65" s="34" t="s">
         <v>765</v>
       </c>
       <c r="G65" s="1" t="str">
@@ -11674,7 +11686,7 @@
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F66" s="35" t="s">
+      <c r="F66" s="34" t="s">
         <v>766</v>
       </c>
       <c r="G66" s="1" t="str">
@@ -11683,7 +11695,7 @@
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F67" s="34"/>
+      <c r="F67" s="33"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="8">
@@ -11838,7 +11850,7 @@
       <c r="C87" s="12" t="s">
         <v>763</v>
       </c>
-      <c r="D87" s="36"/>
+      <c r="D87" s="35"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B88" s="11">
@@ -11847,12 +11859,12 @@
       <c r="C88" s="12" t="s">
         <v>764</v>
       </c>
-      <c r="D88" s="36"/>
+      <c r="D88" s="35"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B89" s="8"/>
-      <c r="C89" s="37"/>
-      <c r="D89" s="36"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="35"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C90" s="3" t="s">
@@ -11917,10 +11929,10 @@
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C94" s="36"/>
-      <c r="D94" s="36"/>
-      <c r="F94" s="38"/>
-      <c r="G94" s="36"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="35"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B95" s="8">
@@ -12090,7 +12102,7 @@
   </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -12127,7 +12139,7 @@
       <c r="D4" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="55" t="s">
         <v>726</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -12139,7 +12151,7 @@
       <c r="D5" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="1" t="s">
         <v>728</v>
       </c>
@@ -12151,74 +12163,74 @@
       <c r="B7" s="11">
         <v>1</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>729</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="31" t="s">
         <v>729</v>
       </c>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="32" t="s">
         <v>730</v>
       </c>
       <c r="D8" s="20"/>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="32" t="s">
         <v>730</v>
       </c>
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="32" t="s">
         <v>731</v>
       </c>
       <c r="D9" s="20"/>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="32" t="s">
         <v>736</v>
       </c>
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="32" t="s">
         <v>732</v>
       </c>
       <c r="D10" s="20"/>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="32" t="s">
         <v>732</v>
       </c>
       <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="32" t="s">
         <v>730</v>
       </c>
       <c r="D11" s="20"/>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="32" t="s">
         <v>730</v>
       </c>
       <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="32" t="s">
         <v>733</v>
       </c>
       <c r="D12" s="20"/>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="32" t="s">
         <v>737</v>
       </c>
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="32" t="s">
         <v>732</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="32" t="s">
         <v>732</v>
       </c>
       <c r="G13" s="20"/>
@@ -12240,74 +12252,74 @@
       <c r="B16" s="11">
         <v>3</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="31" t="s">
         <v>729</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16">
         <v>4</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="31" t="s">
         <v>729</v>
       </c>
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="32" t="s">
         <v>730</v>
       </c>
       <c r="D17" s="20"/>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="32" t="s">
         <v>730</v>
       </c>
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="32" t="s">
         <v>738</v>
       </c>
       <c r="D18" s="20"/>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="32" t="s">
         <v>740</v>
       </c>
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="32" t="s">
         <v>732</v>
       </c>
       <c r="D19" s="20"/>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="32" t="s">
         <v>732</v>
       </c>
       <c r="G19" s="20"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="32" t="s">
         <v>730</v>
       </c>
       <c r="D20" s="20"/>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="32" t="s">
         <v>730</v>
       </c>
       <c r="G20" s="20"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="32" t="s">
         <v>739</v>
       </c>
       <c r="D21" s="20"/>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="32" t="s">
         <v>739</v>
       </c>
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="32" t="s">
         <v>732</v>
       </c>
       <c r="D22" s="20"/>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="32" t="s">
         <v>732</v>
       </c>
       <c r="G22" s="20"/>
@@ -12685,7 +12697,7 @@
         <f t="shared" si="4"/>
         <v>ぞくせい</v>
       </c>
-      <c r="F65" s="35" t="s">
+      <c r="F65" s="34" t="s">
         <v>765</v>
       </c>
       <c r="G65" s="1" t="str">
@@ -12694,7 +12706,7 @@
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F66" s="35" t="s">
+      <c r="F66" s="34" t="s">
         <v>766</v>
       </c>
       <c r="G66" s="1" t="str">
@@ -12703,7 +12715,7 @@
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="F67" s="34"/>
+      <c r="F67" s="33"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="8">
@@ -12858,7 +12870,7 @@
       <c r="C87" s="12" t="s">
         <v>763</v>
       </c>
-      <c r="D87" s="36"/>
+      <c r="D87" s="35"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B88" s="11">
@@ -12867,12 +12879,12 @@
       <c r="C88" s="12" t="s">
         <v>764</v>
       </c>
-      <c r="D88" s="36"/>
+      <c r="D88" s="35"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B89" s="8"/>
-      <c r="C89" s="37"/>
-      <c r="D89" s="36"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="35"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C90" s="3" t="s">
@@ -12937,10 +12949,10 @@
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="C94" s="36"/>
-      <c r="D94" s="36"/>
-      <c r="F94" s="38"/>
-      <c r="G94" s="36"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="35"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B95" s="8">
@@ -16756,21 +16768,21 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>790</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>797</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="44" t="s">
         <v>806</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="45" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>791</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -16779,12 +16791,12 @@
       <c r="D3" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="39" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>792</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -16793,12 +16805,12 @@
       <c r="D4" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="39" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>793</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -16807,12 +16819,12 @@
       <c r="D5" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="39" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>794</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -16821,21 +16833,21 @@
       <c r="D6" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="39" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>795</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="41" t="s">
         <v>802</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="41" t="s">
         <v>811</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="42" t="s">
         <v>825</v>
       </c>
     </row>
@@ -16916,83 +16928,83 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="47" t="s">
         <v>828</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="48" t="s">
         <v>829</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="48" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="49" t="s">
         <v>839</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="53" t="s">
         <v>830</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="54" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="50" t="s">
         <v>840</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
     </row>
     <row r="21" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="49" t="s">
         <v>841</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
     </row>
     <row r="22" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="50" t="s">
         <v>842</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="51" t="s">
         <v>831</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="51" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="49" t="s">
         <v>843</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="52" t="s">
         <v>832</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="52" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="50" t="s">
         <v>844</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="51" t="s">
         <v>833</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="51" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="49" t="s">
         <v>845</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="53" t="s">
         <v>834</v>
       </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="47"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -19121,8 +19133,8 @@
   </sheetPr>
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F114" sqref="F114"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="K103" sqref="K103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -19181,10 +19193,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="9">
+      <c r="B7" s="56">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="57" t="s">
         <v>589</v>
       </c>
     </row>
@@ -19283,10 +19295,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="9">
+      <c r="B18" s="56">
         <v>3</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="57" t="s">
         <v>598</v>
       </c>
     </row>
@@ -19678,10 +19690,10 @@
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B63" s="11">
+      <c r="B63" s="58">
         <v>3</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="57" t="s">
         <v>628</v>
       </c>
     </row>
@@ -19963,12 +19975,13 @@
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B96" s="11">
+      <c r="B96" s="58">
         <v>2</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="57" t="s">
         <v>647</v>
       </c>
+      <c r="D96" s="59"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B97" s="11">
@@ -20050,10 +20063,10 @@
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B106" s="11">
+      <c r="B106" s="58">
         <v>1</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C106" s="57" t="s">
         <v>654</v>
       </c>
     </row>
@@ -20134,6 +20147,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20144,8 +20158,8 @@
   </sheetPr>
   <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -20421,10 +20435,10 @@
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="11">
+      <c r="B32" s="58">
         <v>4</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="60" t="s">
         <v>676</v>
       </c>
     </row>
@@ -20497,10 +20511,10 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B41" s="11">
+      <c r="B41" s="58">
         <v>1</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="60" t="s">
         <v>681</v>
       </c>
     </row>
@@ -20603,10 +20617,10 @@
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B53" s="11">
+      <c r="B53" s="58">
         <v>2</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="60" t="s">
         <v>688</v>
       </c>
     </row>
